--- a/doc/log/log_201608040220_xueerwei.xlsx
+++ b/doc/log/log_201608040220_xueerwei.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -155,6 +155,34 @@
   </si>
   <si>
     <t>课程设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细设计说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建Jenkins环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jenkins测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页登录界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解ajax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -806,6 +834,89 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>43276</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>43277</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>43278</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>43279</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>43280</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>43281</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>43282</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>43283</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>43284</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>43285</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>43286</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
